--- a/Analyzed/raw/data_2017.xlsx
+++ b/Analyzed/raw/data_2017.xlsx
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V3">
         <v>3</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <v>4</v>
@@ -689,19 +689,19 @@
         <v>3</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -765,19 +765,19 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5">
         <v>3</v>
@@ -841,22 +841,22 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -914,13 +914,13 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -938,7 +938,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B8">
@@ -962,29 +962,53 @@
       <c r="H8">
         <v>0.486</v>
       </c>
+      <c r="I8">
+        <v>45.28</v>
+      </c>
+      <c r="J8">
+        <v>2560</v>
+      </c>
+      <c r="K8">
+        <v>1670.481</v>
+      </c>
+      <c r="L8">
+        <v>738</v>
+      </c>
+      <c r="M8">
+        <v>68.44880824501233</v>
+      </c>
+      <c r="N8">
+        <v>83.19999999999993</v>
+      </c>
+      <c r="O8">
+        <v>1232.27</v>
+      </c>
+      <c r="P8">
+        <v>3150.4</v>
+      </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>3</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1057,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -1121,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>4</v>
@@ -1133,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="W10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10">
         <v>4</v>
@@ -1194,25 +1218,25 @@
         <v>10</v>
       </c>
       <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
         <v>2</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>6</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
